--- a/results/26/MIR26.xlsx
+++ b/results/26/MIR26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\MIR_AI_F29\results\26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c5c1c7752d0702d/Documentos/Desarrollo/MIR/results/26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15D687C-3F45-4DD0-A87B-C0C6FFDE3429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F15D687C-3F45-4DD0-A87B-C0C6FFDE3429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D706326-5CBD-466B-84A8-B739A387AA12}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="-19470" windowWidth="30030" windowHeight="17895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="227">
   <si>
     <t>qnum</t>
   </si>
@@ -1148,6 +1148,9 @@
   </si>
   <si>
     <t>Solucion</t>
+  </si>
+  <si>
+    <t>OE</t>
   </si>
 </sst>
 </file>
@@ -1489,25 +1492,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L211"/>
+  <dimension ref="A1:M211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.046875" customWidth="1"/>
-    <col min="6" max="6" width="18.09765625" customWidth="1"/>
-    <col min="7" max="7" width="20.8984375" customWidth="1"/>
-    <col min="8" max="8" width="19.44921875" customWidth="1"/>
-    <col min="9" max="9" width="17.046875" customWidth="1"/>
-    <col min="10" max="10" width="16.44921875" customWidth="1"/>
-    <col min="11" max="11" width="17.546875" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" customWidth="1"/>
+    <col min="6" max="6" width="18.08203125" customWidth="1"/>
+    <col min="7" max="7" width="20.9140625" customWidth="1"/>
+    <col min="8" max="8" width="19.4140625" customWidth="1"/>
+    <col min="9" max="9" width="17.08203125" customWidth="1"/>
+    <col min="10" max="10" width="16.4140625" customWidth="1"/>
+    <col min="11" max="11" width="17.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1542,10 +1545,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1579,11 +1585,11 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1617,11 +1623,11 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1655,11 +1661,11 @@
       <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1693,11 +1699,11 @@
       <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1731,11 +1737,11 @@
       <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1769,11 +1775,11 @@
       <c r="K7" t="s">
         <v>15</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1807,11 +1813,11 @@
       <c r="K8" t="s">
         <v>12</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1845,11 +1851,11 @@
       <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1883,11 +1889,11 @@
       <c r="K10" t="s">
         <v>14</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1921,11 +1927,11 @@
       <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1959,11 +1965,11 @@
       <c r="K12" t="s">
         <v>15</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1997,11 +2003,11 @@
       <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2035,11 +2041,11 @@
       <c r="K14" t="s">
         <v>14</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2073,11 +2079,11 @@
       <c r="K15" t="s">
         <v>15</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2111,11 +2117,11 @@
       <c r="K16" t="s">
         <v>13</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2149,11 +2155,11 @@
       <c r="K17" t="s">
         <v>15</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2187,11 +2193,11 @@
       <c r="K18" t="s">
         <v>15</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2225,11 +2231,11 @@
       <c r="K19" t="s">
         <v>14</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2263,11 +2269,11 @@
       <c r="K20" t="s">
         <v>12</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2301,11 +2307,11 @@
       <c r="K21" t="s">
         <v>12</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2339,11 +2345,11 @@
       <c r="K22" t="s">
         <v>12</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2377,11 +2383,11 @@
       <c r="K23" t="s">
         <v>15</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2415,11 +2421,11 @@
       <c r="K24" t="s">
         <v>12</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2453,11 +2459,11 @@
       <c r="K25" t="s">
         <v>13</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2491,11 +2497,11 @@
       <c r="K26" t="s">
         <v>15</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2526,11 +2532,11 @@
       <c r="K27" t="s">
         <v>13</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2561,11 +2567,11 @@
       <c r="K28" t="s">
         <v>12</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2596,11 +2602,11 @@
       <c r="K29" t="s">
         <v>14</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2631,11 +2637,11 @@
       <c r="K30" t="s">
         <v>13</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2666,11 +2672,11 @@
       <c r="K31" t="s">
         <v>14</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2701,11 +2707,11 @@
       <c r="K32" t="s">
         <v>15</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2736,11 +2742,11 @@
       <c r="K33" t="s">
         <v>15</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2771,11 +2777,11 @@
       <c r="K34" t="s">
         <v>12</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2806,11 +2812,11 @@
       <c r="K35" t="s">
         <v>12</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2841,11 +2847,11 @@
       <c r="K36" t="s">
         <v>15</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2876,11 +2882,11 @@
       <c r="K37" t="s">
         <v>14</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2911,11 +2917,11 @@
       <c r="K38" t="s">
         <v>14</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2946,11 +2952,11 @@
       <c r="K39" t="s">
         <v>13</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2981,11 +2987,11 @@
       <c r="K40" t="s">
         <v>15</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3016,11 +3022,11 @@
       <c r="K41" t="s">
         <v>13</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3051,11 +3057,11 @@
       <c r="K42" t="s">
         <v>14</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3086,11 +3092,11 @@
       <c r="K43" t="s">
         <v>13</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3121,11 +3127,11 @@
       <c r="K44" t="s">
         <v>12</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3156,11 +3162,11 @@
       <c r="K45" t="s">
         <v>12</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3191,11 +3197,11 @@
       <c r="K46" t="s">
         <v>12</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3226,11 +3232,11 @@
       <c r="K47" t="s">
         <v>12</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3261,11 +3267,11 @@
       <c r="K48" t="s">
         <v>14</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3296,11 +3302,11 @@
       <c r="K49" t="s">
         <v>15</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3331,11 +3337,11 @@
       <c r="K50" t="s">
         <v>15</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3366,11 +3372,11 @@
       <c r="K51" t="s">
         <v>12</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3401,11 +3407,11 @@
       <c r="K52" t="s">
         <v>13</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3436,11 +3442,11 @@
       <c r="K53" t="s">
         <v>15</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3471,11 +3477,11 @@
       <c r="K54" t="s">
         <v>15</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3506,11 +3512,11 @@
       <c r="K55" t="s">
         <v>15</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3541,11 +3547,11 @@
       <c r="K56" t="s">
         <v>13</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3576,11 +3582,11 @@
       <c r="K57" t="s">
         <v>13</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3611,11 +3617,11 @@
       <c r="K58" t="s">
         <v>13</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3646,11 +3652,11 @@
       <c r="K59" t="s">
         <v>13</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3681,11 +3687,11 @@
       <c r="K60" t="s">
         <v>12</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3716,11 +3722,11 @@
       <c r="K61" t="s">
         <v>12</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3751,11 +3757,11 @@
       <c r="K62" t="s">
         <v>15</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3786,11 +3792,11 @@
       <c r="K63" t="s">
         <v>12</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3821,11 +3827,11 @@
       <c r="K64" t="s">
         <v>12</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3856,11 +3862,11 @@
       <c r="K65" t="s">
         <v>13</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3891,11 +3897,11 @@
       <c r="K66" t="s">
         <v>15</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3926,11 +3932,11 @@
       <c r="K67" t="s">
         <v>14</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3961,11 +3967,11 @@
       <c r="K68" t="s">
         <v>15</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3996,11 +4002,11 @@
       <c r="K69" t="s">
         <v>13</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4031,11 +4037,11 @@
       <c r="K70" t="s">
         <v>12</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4066,11 +4072,11 @@
       <c r="K71" t="s">
         <v>12</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4101,11 +4107,11 @@
       <c r="K72" t="s">
         <v>12</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4136,11 +4142,11 @@
       <c r="K73" t="s">
         <v>12</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4171,11 +4177,11 @@
       <c r="K74" t="s">
         <v>12</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4206,11 +4212,11 @@
       <c r="K75" t="s">
         <v>13</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4241,11 +4247,11 @@
       <c r="K76" t="s">
         <v>15</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4276,11 +4282,11 @@
       <c r="K77" t="s">
         <v>15</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4311,11 +4317,11 @@
       <c r="K78" t="s">
         <v>14</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4346,11 +4352,11 @@
       <c r="K79" t="s">
         <v>14</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4381,11 +4387,11 @@
       <c r="K80" t="s">
         <v>13</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4416,11 +4422,11 @@
       <c r="K81" t="s">
         <v>14</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4451,11 +4457,11 @@
       <c r="K82" t="s">
         <v>15</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4486,11 +4492,11 @@
       <c r="K83" t="s">
         <v>15</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4521,11 +4527,11 @@
       <c r="K84" t="s">
         <v>12</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4556,11 +4562,11 @@
       <c r="K85" t="s">
         <v>13</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4591,11 +4597,11 @@
       <c r="K86" t="s">
         <v>14</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4626,11 +4632,11 @@
       <c r="K87" t="s">
         <v>13</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4661,11 +4667,11 @@
       <c r="K88" t="s">
         <v>12</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4696,11 +4702,11 @@
       <c r="K89" t="s">
         <v>12</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4731,11 +4737,11 @@
       <c r="K90" t="s">
         <v>12</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4766,11 +4772,11 @@
       <c r="K91" t="s">
         <v>15</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4801,11 +4807,11 @@
       <c r="K92" t="s">
         <v>13</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4836,11 +4842,11 @@
       <c r="K93" t="s">
         <v>15</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4871,11 +4877,11 @@
       <c r="K94" t="s">
         <v>14</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4906,11 +4912,11 @@
       <c r="K95" t="s">
         <v>15</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4941,11 +4947,11 @@
       <c r="K96" t="s">
         <v>15</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4976,11 +4982,11 @@
       <c r="K97" t="s">
         <v>12</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5011,11 +5017,11 @@
       <c r="K98" t="s">
         <v>12</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5046,11 +5052,11 @@
       <c r="K99" t="s">
         <v>13</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5081,11 +5087,11 @@
       <c r="K100" t="s">
         <v>12</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5116,11 +5122,11 @@
       <c r="K101" t="s">
         <v>15</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5151,11 +5157,11 @@
       <c r="K102" t="s">
         <v>15</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5186,11 +5192,11 @@
       <c r="K103" t="s">
         <v>13</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5221,11 +5227,11 @@
       <c r="K104" t="s">
         <v>15</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5256,11 +5262,11 @@
       <c r="K105" t="s">
         <v>15</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5291,11 +5297,11 @@
       <c r="K106" t="s">
         <v>15</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5326,11 +5332,11 @@
       <c r="K107" t="s">
         <v>12</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5361,11 +5367,11 @@
       <c r="K108" t="s">
         <v>15</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5396,11 +5402,11 @@
       <c r="K109" t="s">
         <v>13</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5431,11 +5437,11 @@
       <c r="K110" t="s">
         <v>15</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5466,11 +5472,11 @@
       <c r="K111" t="s">
         <v>15</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5501,11 +5507,11 @@
       <c r="K112" t="s">
         <v>12</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5536,11 +5542,11 @@
       <c r="K113" t="s">
         <v>15</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5571,11 +5577,11 @@
       <c r="K114" t="s">
         <v>15</v>
       </c>
-      <c r="L114">
+      <c r="M114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5606,11 +5612,11 @@
       <c r="K115" t="s">
         <v>14</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5641,11 +5647,11 @@
       <c r="K116" t="s">
         <v>12</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5676,11 +5682,11 @@
       <c r="K117" t="s">
         <v>14</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5711,11 +5717,11 @@
       <c r="K118" t="s">
         <v>15</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5746,11 +5752,11 @@
       <c r="K119" t="s">
         <v>12</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5781,11 +5787,11 @@
       <c r="K120" t="s">
         <v>13</v>
       </c>
-      <c r="L120">
+      <c r="M120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5816,11 +5822,11 @@
       <c r="K121" t="s">
         <v>13</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5851,11 +5857,11 @@
       <c r="K122" t="s">
         <v>15</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5886,11 +5892,11 @@
       <c r="K123" t="s">
         <v>12</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5921,11 +5927,11 @@
       <c r="K124" t="s">
         <v>12</v>
       </c>
-      <c r="L124">
+      <c r="M124">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5956,11 +5962,11 @@
       <c r="K125" t="s">
         <v>12</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5991,11 +5997,11 @@
       <c r="K126" t="s">
         <v>15</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6026,11 +6032,11 @@
       <c r="K127" t="s">
         <v>12</v>
       </c>
-      <c r="L127">
+      <c r="M127">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6061,11 +6067,11 @@
       <c r="K128" t="s">
         <v>15</v>
       </c>
-      <c r="L128">
+      <c r="M128">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6096,11 +6102,11 @@
       <c r="K129" t="s">
         <v>15</v>
       </c>
-      <c r="L129">
+      <c r="M129">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6131,11 +6137,11 @@
       <c r="K130" t="s">
         <v>15</v>
       </c>
-      <c r="L130">
+      <c r="M130">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6166,11 +6172,11 @@
       <c r="K131" t="s">
         <v>15</v>
       </c>
-      <c r="L131">
+      <c r="M131">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6201,11 +6207,11 @@
       <c r="K132" t="s">
         <v>12</v>
       </c>
-      <c r="L132">
+      <c r="M132">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6236,11 +6242,11 @@
       <c r="K133" t="s">
         <v>13</v>
       </c>
-      <c r="L133">
+      <c r="M133">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6271,11 +6277,11 @@
       <c r="K134" t="s">
         <v>15</v>
       </c>
-      <c r="L134">
+      <c r="M134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6306,11 +6312,11 @@
       <c r="K135" t="s">
         <v>12</v>
       </c>
-      <c r="L135">
+      <c r="M135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6341,11 +6347,11 @@
       <c r="K136" t="s">
         <v>15</v>
       </c>
-      <c r="L136">
+      <c r="M136">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6376,11 +6382,11 @@
       <c r="K137" t="s">
         <v>12</v>
       </c>
-      <c r="L137">
+      <c r="M137">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6411,11 +6417,11 @@
       <c r="K138" t="s">
         <v>14</v>
       </c>
-      <c r="L138">
+      <c r="M138">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6446,11 +6452,11 @@
       <c r="K139" t="s">
         <v>12</v>
       </c>
-      <c r="L139">
+      <c r="M139">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6481,11 +6487,11 @@
       <c r="K140" t="s">
         <v>13</v>
       </c>
-      <c r="L140">
+      <c r="M140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6516,11 +6522,11 @@
       <c r="K141" t="s">
         <v>12</v>
       </c>
-      <c r="L141">
+      <c r="M141">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6551,11 +6557,11 @@
       <c r="K142" t="s">
         <v>13</v>
       </c>
-      <c r="L142">
+      <c r="M142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6586,11 +6592,11 @@
       <c r="K143" t="s">
         <v>13</v>
       </c>
-      <c r="L143">
+      <c r="M143">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6621,11 +6627,11 @@
       <c r="K144" t="s">
         <v>13</v>
       </c>
-      <c r="L144">
+      <c r="M144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6656,11 +6662,11 @@
       <c r="K145" t="s">
         <v>14</v>
       </c>
-      <c r="L145">
+      <c r="M145">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6691,11 +6697,11 @@
       <c r="K146" t="s">
         <v>15</v>
       </c>
-      <c r="L146">
+      <c r="M146">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6726,11 +6732,11 @@
       <c r="K147" t="s">
         <v>15</v>
       </c>
-      <c r="L147">
+      <c r="M147">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6761,11 +6767,11 @@
       <c r="K148" t="s">
         <v>12</v>
       </c>
-      <c r="L148">
+      <c r="M148">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6796,11 +6802,11 @@
       <c r="K149" t="s">
         <v>15</v>
       </c>
-      <c r="L149">
+      <c r="M149">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6831,11 +6837,11 @@
       <c r="K150" t="s">
         <v>12</v>
       </c>
-      <c r="L150">
+      <c r="M150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6866,11 +6872,11 @@
       <c r="K151" t="s">
         <v>12</v>
       </c>
-      <c r="L151">
+      <c r="M151">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6901,11 +6907,11 @@
       <c r="K152" t="s">
         <v>12</v>
       </c>
-      <c r="L152">
+      <c r="M152">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6936,11 +6942,11 @@
       <c r="K153" t="s">
         <v>15</v>
       </c>
-      <c r="L153">
+      <c r="M153">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6971,11 +6977,11 @@
       <c r="K154" t="s">
         <v>15</v>
       </c>
-      <c r="L154">
+      <c r="M154">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7006,11 +7012,11 @@
       <c r="K155" t="s">
         <v>14</v>
       </c>
-      <c r="L155">
+      <c r="M155">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7041,11 +7047,11 @@
       <c r="K156" t="s">
         <v>12</v>
       </c>
-      <c r="L156">
+      <c r="M156">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7076,11 +7082,11 @@
       <c r="K157" t="s">
         <v>13</v>
       </c>
-      <c r="L157">
+      <c r="M157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7111,11 +7117,11 @@
       <c r="K158" t="s">
         <v>14</v>
       </c>
-      <c r="L158">
+      <c r="M158">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7146,11 +7152,11 @@
       <c r="K159" t="s">
         <v>12</v>
       </c>
-      <c r="L159">
+      <c r="M159">
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7181,11 +7187,11 @@
       <c r="K160" t="s">
         <v>15</v>
       </c>
-      <c r="L160">
+      <c r="M160">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7216,11 +7222,11 @@
       <c r="K161" t="s">
         <v>13</v>
       </c>
-      <c r="L161">
+      <c r="M161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7251,11 +7257,11 @@
       <c r="K162" t="s">
         <v>15</v>
       </c>
-      <c r="L162">
+      <c r="M162">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7286,11 +7292,11 @@
       <c r="K163" t="s">
         <v>13</v>
       </c>
-      <c r="L163">
+      <c r="M163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7321,11 +7327,11 @@
       <c r="K164" t="s">
         <v>15</v>
       </c>
-      <c r="L164">
+      <c r="M164">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7356,11 +7362,11 @@
       <c r="K165" t="s">
         <v>15</v>
       </c>
-      <c r="L165">
+      <c r="M165">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7391,11 +7397,11 @@
       <c r="K166" t="s">
         <v>13</v>
       </c>
-      <c r="L166">
+      <c r="M166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7426,11 +7432,11 @@
       <c r="K167" t="s">
         <v>13</v>
       </c>
-      <c r="L167">
+      <c r="M167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7461,11 +7467,11 @@
       <c r="K168" t="s">
         <v>14</v>
       </c>
-      <c r="L168">
+      <c r="M168">
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7496,11 +7502,11 @@
       <c r="K169" t="s">
         <v>15</v>
       </c>
-      <c r="L169">
+      <c r="M169">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7531,11 +7537,11 @@
       <c r="K170" t="s">
         <v>12</v>
       </c>
-      <c r="L170">
+      <c r="M170">
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7566,11 +7572,11 @@
       <c r="K171" t="s">
         <v>12</v>
       </c>
-      <c r="L171">
+      <c r="M171">
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7601,11 +7607,11 @@
       <c r="K172" t="s">
         <v>13</v>
       </c>
-      <c r="L172">
+      <c r="M172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7636,11 +7642,11 @@
       <c r="K173" t="s">
         <v>13</v>
       </c>
-      <c r="L173">
+      <c r="M173">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7671,11 +7677,11 @@
       <c r="K174" t="s">
         <v>14</v>
       </c>
-      <c r="L174">
+      <c r="M174">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7706,11 +7712,11 @@
       <c r="K175" t="s">
         <v>15</v>
       </c>
-      <c r="L175">
+      <c r="M175">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7741,11 +7747,11 @@
       <c r="K176" t="s">
         <v>12</v>
       </c>
-      <c r="L176">
+      <c r="M176">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7776,11 +7782,11 @@
       <c r="K177" t="s">
         <v>13</v>
       </c>
-      <c r="L177">
+      <c r="M177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7811,11 +7817,11 @@
       <c r="K178" t="s">
         <v>14</v>
       </c>
-      <c r="L178">
+      <c r="M178">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7846,11 +7852,11 @@
       <c r="K179" t="s">
         <v>14</v>
       </c>
-      <c r="L179">
+      <c r="M179">
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7881,11 +7887,11 @@
       <c r="K180" t="s">
         <v>12</v>
       </c>
-      <c r="L180">
+      <c r="M180">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7916,11 +7922,11 @@
       <c r="K181" t="s">
         <v>15</v>
       </c>
-      <c r="L181">
+      <c r="M181">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7951,11 +7957,11 @@
       <c r="K182" t="s">
         <v>12</v>
       </c>
-      <c r="L182">
+      <c r="M182">
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7986,11 +7992,11 @@
       <c r="K183" t="s">
         <v>15</v>
       </c>
-      <c r="L183">
+      <c r="M183">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8021,11 +8027,11 @@
       <c r="K184" t="s">
         <v>14</v>
       </c>
-      <c r="L184">
+      <c r="M184">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8056,11 +8062,11 @@
       <c r="K185" t="s">
         <v>14</v>
       </c>
-      <c r="L185">
+      <c r="M185">
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8091,11 +8097,11 @@
       <c r="K186" t="s">
         <v>12</v>
       </c>
-      <c r="L186">
+      <c r="M186">
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8126,11 +8132,11 @@
       <c r="K187" t="s">
         <v>14</v>
       </c>
-      <c r="L187">
+      <c r="M187">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8161,11 +8167,11 @@
       <c r="K188" t="s">
         <v>14</v>
       </c>
-      <c r="L188">
+      <c r="M188">
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8196,11 +8202,11 @@
       <c r="K189" t="s">
         <v>15</v>
       </c>
-      <c r="L189">
+      <c r="M189">
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8231,11 +8237,11 @@
       <c r="K190" t="s">
         <v>15</v>
       </c>
-      <c r="L190">
+      <c r="M190">
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8266,11 +8272,11 @@
       <c r="K191" t="s">
         <v>12</v>
       </c>
-      <c r="L191">
+      <c r="M191">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8301,11 +8307,11 @@
       <c r="K192" t="s">
         <v>14</v>
       </c>
-      <c r="L192">
+      <c r="M192">
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8336,11 +8342,11 @@
       <c r="K193" t="s">
         <v>14</v>
       </c>
-      <c r="L193">
+      <c r="M193">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8371,11 +8377,11 @@
       <c r="K194" t="s">
         <v>15</v>
       </c>
-      <c r="L194">
+      <c r="M194">
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8406,11 +8412,11 @@
       <c r="K195" t="s">
         <v>15</v>
       </c>
-      <c r="L195">
+      <c r="M195">
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8441,11 +8447,11 @@
       <c r="K196" t="s">
         <v>14</v>
       </c>
-      <c r="L196">
+      <c r="M196">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8476,11 +8482,11 @@
       <c r="K197" t="s">
         <v>13</v>
       </c>
-      <c r="L197">
+      <c r="M197">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8511,11 +8517,11 @@
       <c r="K198" t="s">
         <v>15</v>
       </c>
-      <c r="L198">
+      <c r="M198">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8546,11 +8552,11 @@
       <c r="K199" t="s">
         <v>12</v>
       </c>
-      <c r="L199">
+      <c r="M199">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8581,11 +8587,11 @@
       <c r="K200" t="s">
         <v>12</v>
       </c>
-      <c r="L200">
+      <c r="M200">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8616,11 +8622,11 @@
       <c r="K201" t="s">
         <v>14</v>
       </c>
-      <c r="L201">
+      <c r="M201">
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8651,11 +8657,11 @@
       <c r="K202" t="s">
         <v>15</v>
       </c>
-      <c r="L202">
+      <c r="M202">
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8686,11 +8692,11 @@
       <c r="K203" t="s">
         <v>13</v>
       </c>
-      <c r="L203">
+      <c r="M203">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8721,11 +8727,11 @@
       <c r="K204" t="s">
         <v>13</v>
       </c>
-      <c r="L204">
+      <c r="M204">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8756,11 +8762,11 @@
       <c r="K205" t="s">
         <v>15</v>
       </c>
-      <c r="L205">
+      <c r="M205">
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8791,11 +8797,11 @@
       <c r="K206" t="s">
         <v>12</v>
       </c>
-      <c r="L206">
+      <c r="M206">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8826,11 +8832,11 @@
       <c r="K207" t="s">
         <v>15</v>
       </c>
-      <c r="L207">
+      <c r="M207">
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8861,11 +8867,11 @@
       <c r="K208" t="s">
         <v>13</v>
       </c>
-      <c r="L208">
+      <c r="M208">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8896,11 +8902,11 @@
       <c r="K209" t="s">
         <v>14</v>
       </c>
-      <c r="L209">
+      <c r="M209">
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8931,11 +8937,11 @@
       <c r="K210" t="s">
         <v>12</v>
       </c>
-      <c r="L210">
+      <c r="M210">
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8966,7 +8972,7 @@
       <c r="K211" t="s">
         <v>15</v>
       </c>
-      <c r="L211">
+      <c r="M211">
         <v>3</v>
       </c>
     </row>
